--- a/biology/Zoologie/Ancylocranium_barkeri/Ancylocranium_barkeri.xlsx
+++ b/biology/Zoologie/Ancylocranium_barkeri/Ancylocranium_barkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancylocranium barkeri est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancylocranium barkeri est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tanzanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles apodes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 juil. 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 juil. 2011) :
 Ancylocranium barkeri barkeri Loveridge, 1946
 Ancylocranium barkeri newalae Loveridge, 1962</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Ronald de la Berre Barker (1889-)[3]. La sous-espèce est nommée en référence au lieu de sa découverte, Newala dans la région de Mtwara.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Ronald de la Berre Barker (1889-). La sous-espèce est nommée en référence au lieu de sa découverte, Newala dans la région de Mtwara.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Loveridge, 1946 : A new worm-lizard (Ancylocranium barkeri) from Tanganyika Territory. Proceedings of the Biological Society of Washington, vol. 59, p. 73 (texte intégral).
 Loveridge, 1962 : New worm-lizards (Ancylocranium and Amphisbaena) from southeastern Tanganyika territory. Breviora, no 163, p. 1-6 (texte intégral).</t>
